--- a/resources/disease_data/onion_disease_sammary.xlsx
+++ b/resources/disease_data/onion_disease_sammary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rin00/myprojects/onion/resources/disease_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620FC16-12C1-F045-BF95-1EFC946B212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917BDC8-2342-4A47-9EB5-789A4055E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{1E489AB5-51B6-A64A-8865-08E255504072}"/>
   </bookViews>
@@ -71,8 +71,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -83,16 +84,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="131">
   <si>
     <t>地区名</t>
     <rPh sb="0" eb="3">
@@ -925,7 +940,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1158,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,10 +1283,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1284,19 +1299,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,6 +1328,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FD17B5-92E9-7042-B10F-18376E89EA47}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1646,7 +1716,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1">
+    <row r="1" spans="1:14" s="9" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1683,8 +1753,14 @@
       <c r="L1" s="11">
         <v>32919</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1721,8 +1797,14 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
@@ -1759,8 +1841,14 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -1797,8 +1885,14 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -1835,8 +1929,14 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1873,8 +1973,14 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -1911,8 +2017,14 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -1949,8 +2061,14 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -1987,8 +2105,14 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -2025,8 +2149,14 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -2063,8 +2193,14 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -2101,8 +2237,14 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -2139,8 +2281,14 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
         <v>96</v>
       </c>
@@ -2177,8 +2325,14 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2215,8 +2369,14 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -2253,8 +2413,14 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -2291,8 +2457,14 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1">
+      <c r="M17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -2329,8 +2501,14 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2367,8 +2545,15 @@
       <c r="L19" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="42" t="e" cm="1" vm="1">
+        <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2405,8 +2590,14 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2443,8 +2634,15 @@
       <c r="L21" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1">
+      <c r="M21" s="42" t="e" cm="1" vm="1">
+        <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="9" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -2487,8 +2685,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="C23" s="12">
         <v>60</v>
       </c>
@@ -30018,7 +30219,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -30781,7 +30982,7 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="29">
@@ -31034,7 +31235,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E20:L22" formulaRange="1"/>
+    <ignoredError sqref="D19:M22" formulaRange="1"/>
+    <ignoredError sqref="C22" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -32064,7 +32266,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -33074,6 +33276,11 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E22:M22 E19:L21" formulaRange="1"/>
+    <ignoredError sqref="C22" evalError="1"/>
+    <ignoredError sqref="M19:M21" evalError="1" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/resources/disease_data/onion_disease_sammary.xlsx
+++ b/resources/disease_data/onion_disease_sammary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rin00/myprojects/onion/resources/disease_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917BDC8-2342-4A47-9EB5-789A4055E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD644346-7AAA-264D-8938-E90FB342B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{1E489AB5-51B6-A64A-8865-08E255504072}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" firstSheet="11" activeTab="24" xr2:uid="{1E489AB5-51B6-A64A-8865-08E255504072}"/>
   </bookViews>
   <sheets>
     <sheet name="1990" sheetId="36" r:id="rId1"/>
@@ -1707,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FD17B5-92E9-7042-B10F-18376E89EA47}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -18619,8 +18619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7037B7-D094-1C41-B272-E72416F5EAE7}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18663,7 +18663,7 @@
         <v>41690</v>
       </c>
       <c r="L1" s="11">
-        <v>45328</v>
+        <v>41676</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>101</v>

--- a/resources/disease_data/onion_disease_sammary.xlsx
+++ b/resources/disease_data/onion_disease_sammary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rin00/myprojects/onion/resources/disease_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD644346-7AAA-264D-8938-E90FB342B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1CD15-9C67-0D4A-83D2-A3998E0C8DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" firstSheet="11" activeTab="24" xr2:uid="{1E489AB5-51B6-A64A-8865-08E255504072}"/>
+    <workbookView xWindow="600" yWindow="-25700" windowWidth="29400" windowHeight="17220" firstSheet="19" activeTab="34" xr2:uid="{1E489AB5-51B6-A64A-8865-08E255504072}"/>
   </bookViews>
   <sheets>
     <sheet name="1990" sheetId="36" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <sheet name="2021" sheetId="4" r:id="rId32"/>
     <sheet name="2022" sheetId="2" r:id="rId33"/>
     <sheet name="2023" sheetId="1" r:id="rId34"/>
-    <sheet name="Sheet1" sheetId="37" r:id="rId35"/>
+    <sheet name="2024" sheetId="37" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="128">
   <si>
     <t>地区名</t>
     <rPh sb="0" eb="3">
@@ -683,27 +683,6 @@
     <t>賀集</t>
   </si>
   <si>
-    <t>年度</t>
-    <rPh sb="0" eb="2">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>貯蔵</t>
-    <rPh sb="0" eb="2">
-      <t>チョゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>収穫</t>
-    <rPh sb="0" eb="2">
-      <t>シュウカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>収穫日</t>
   </si>
   <si>
@@ -942,7 +921,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -989,14 +968,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1173,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,10 +1247,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1295,7 +1262,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1754,10 +1721,10 @@
         <v>32919</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1797,7 +1764,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -1841,10 +1808,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -1885,10 +1852,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
     </row>
@@ -1929,7 +1896,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -1973,7 +1940,7 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N6">
@@ -2017,10 +1984,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2061,10 +2028,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -2105,7 +2072,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -2149,10 +2116,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2193,7 +2160,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -2237,7 +2204,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -2281,10 +2248,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2325,7 +2292,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -2369,10 +2336,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2413,10 +2380,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2457,10 +2424,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2501,7 +2468,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -2545,7 +2512,7 @@
       <c r="L19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="42" t="e" cm="1" vm="1">
+      <c r="M19" s="40" t="e" cm="1" vm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>#VALUE!</v>
       </c>
@@ -2590,7 +2557,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -2634,7 +2601,7 @@
       <c r="L21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="42" t="e" cm="1" vm="1">
+      <c r="M21" s="40" t="e" cm="1" vm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>#VALUE!</v>
       </c>
@@ -2760,10 +2727,10 @@
         <v>36201</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2803,7 +2770,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="49">
         <v>36312</v>
       </c>
       <c r="N2">
@@ -2847,10 +2814,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>36312</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -2891,7 +2858,7 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <v>36308</v>
       </c>
       <c r="N4">
@@ -2935,7 +2902,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>36319</v>
       </c>
       <c r="N5">
@@ -2979,7 +2946,7 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>36319</v>
       </c>
       <c r="N6">
@@ -3023,10 +2990,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>36319</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3067,7 +3034,7 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>36308</v>
       </c>
       <c r="N8">
@@ -3111,7 +3078,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>36308</v>
       </c>
       <c r="N9">
@@ -3120,7 +3087,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -3155,10 +3122,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="49">
         <v>36319</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3199,7 +3166,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>36308</v>
       </c>
       <c r="N11">
@@ -3243,7 +3210,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>36308</v>
       </c>
       <c r="N12">
@@ -3287,10 +3254,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>36308</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3331,7 +3298,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>36308</v>
       </c>
       <c r="N14">
@@ -3375,10 +3342,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="49">
         <v>36319</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3419,10 +3386,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="49">
         <v>36319</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3463,10 +3430,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="49">
         <v>36319</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3507,7 +3474,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="50">
         <v>36308</v>
       </c>
       <c r="N18" s="1">
@@ -3561,7 +3528,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>36308.5</v>
       </c>
@@ -3606,7 +3573,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -3659,7 +3626,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>36319</v>
       </c>
@@ -3786,10 +3753,10 @@
         <v>36566</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3829,7 +3796,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -3873,10 +3840,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3917,7 +3884,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <v>36674</v>
       </c>
       <c r="N4">
@@ -3961,7 +3928,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -4005,7 +3972,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>36674</v>
       </c>
       <c r="N6">
@@ -4049,10 +4016,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>36674</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4093,7 +4060,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>36674</v>
       </c>
       <c r="N8">
@@ -4137,7 +4104,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -4181,10 +4148,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4225,7 +4192,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>36674</v>
       </c>
       <c r="N11">
@@ -4269,7 +4236,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>36674</v>
       </c>
       <c r="N12">
@@ -4313,10 +4280,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>36674</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4357,7 +4324,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>36674</v>
       </c>
       <c r="N14">
@@ -4401,10 +4368,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4445,10 +4412,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4489,10 +4456,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4533,7 +4500,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -4587,7 +4554,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>36674</v>
       </c>
@@ -4632,7 +4599,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -4685,7 +4652,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N21">
@@ -4811,10 +4778,10 @@
         <v>36930</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4854,7 +4821,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>37040</v>
       </c>
       <c r="N2">
@@ -4898,10 +4865,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>37040</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -4942,7 +4909,7 @@
       <c r="L4" s="14">
         <v>0.5</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>37043</v>
       </c>
       <c r="N4">
@@ -4986,7 +4953,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>37050</v>
       </c>
       <c r="N5">
@@ -5030,7 +4997,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>37050</v>
       </c>
       <c r="N6">
@@ -5074,10 +5041,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>37050</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5118,7 +5085,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>37043</v>
       </c>
       <c r="N8">
@@ -5162,7 +5129,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>37050</v>
       </c>
       <c r="N9">
@@ -5206,10 +5173,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>37050</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5250,7 +5217,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>37043</v>
       </c>
       <c r="N11">
@@ -5294,7 +5261,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>37043</v>
       </c>
       <c r="N12">
@@ -5338,10 +5305,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>37043</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5382,7 +5349,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>37043</v>
       </c>
       <c r="N14">
@@ -5426,10 +5393,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>37050</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5470,10 +5437,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>37050</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5514,10 +5481,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>37050</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5558,7 +5525,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>37050</v>
       </c>
       <c r="N18" s="1">
@@ -5612,7 +5579,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>37042.25</v>
       </c>
@@ -5657,7 +5624,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -5711,7 +5678,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>37050</v>
       </c>
@@ -5839,10 +5806,10 @@
         <v>37294</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5882,7 +5849,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>37406</v>
       </c>
       <c r="N2">
@@ -5926,10 +5893,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>37406</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5970,7 +5937,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>37406</v>
       </c>
       <c r="N4">
@@ -6014,7 +5981,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>37414</v>
       </c>
       <c r="N5">
@@ -6058,7 +6025,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>37414</v>
       </c>
       <c r="N6">
@@ -6102,10 +6069,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>37406</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6146,7 +6113,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>37406</v>
       </c>
       <c r="N8">
@@ -6190,7 +6157,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>37414</v>
       </c>
       <c r="N9">
@@ -6234,10 +6201,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>37414</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6278,7 +6245,7 @@
       <c r="L11" s="14">
         <v>0.25</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>37406</v>
       </c>
       <c r="N11">
@@ -6322,7 +6289,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>37406</v>
       </c>
       <c r="N12">
@@ -6366,10 +6333,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>37406</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6410,7 +6377,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>37406</v>
       </c>
       <c r="N14">
@@ -6454,10 +6421,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>37414</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6498,10 +6465,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>37414</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6542,10 +6509,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>37414</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -6586,7 +6553,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>37414</v>
       </c>
       <c r="N18" s="1">
@@ -6640,7 +6607,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>37406</v>
       </c>
@@ -6685,7 +6652,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -6738,7 +6705,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>37414</v>
       </c>
@@ -6865,10 +6832,10 @@
         <v>37657</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6908,7 +6875,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>37771</v>
       </c>
       <c r="N2">
@@ -6952,10 +6919,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>37771</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -6996,7 +6963,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>37771</v>
       </c>
       <c r="N4">
@@ -7040,7 +7007,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>37771</v>
       </c>
       <c r="N5">
@@ -7084,7 +7051,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>37771</v>
       </c>
       <c r="N6">
@@ -7128,10 +7095,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>37771</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7172,7 +7139,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>37771</v>
       </c>
       <c r="N8">
@@ -7216,7 +7183,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>37778</v>
       </c>
       <c r="N9">
@@ -7260,10 +7227,10 @@
       <c r="L10" s="14">
         <v>1</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>37771</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>0</v>
       </c>
     </row>
@@ -7304,7 +7271,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>37771</v>
       </c>
       <c r="N11">
@@ -7348,7 +7315,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>37771</v>
       </c>
       <c r="N12">
@@ -7392,10 +7359,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>37771</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7436,7 +7403,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>37771</v>
       </c>
       <c r="N14">
@@ -7480,10 +7447,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>37778</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7524,10 +7491,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>37778</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7568,10 +7535,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>37778</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -7612,7 +7579,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>37771</v>
       </c>
       <c r="N18" s="1">
@@ -7666,7 +7633,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>37771</v>
       </c>
@@ -7711,7 +7678,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -7765,7 +7732,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>37778</v>
       </c>
@@ -7893,10 +7860,10 @@
         <v>38022</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7936,7 +7903,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>38135</v>
       </c>
       <c r="N2">
@@ -7980,10 +7947,10 @@
       <c r="L3" s="14">
         <v>0.25</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>38135</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8024,7 +7991,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>38135</v>
       </c>
       <c r="N4">
@@ -8068,7 +8035,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>38135</v>
       </c>
       <c r="N5">
@@ -8112,7 +8079,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>38135</v>
       </c>
       <c r="N6">
@@ -8156,10 +8123,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>38135</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8200,7 +8167,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>38135</v>
       </c>
       <c r="N8">
@@ -8244,7 +8211,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>38135</v>
       </c>
       <c r="N9">
@@ -8288,10 +8255,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>38135</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8332,7 +8299,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>38142</v>
       </c>
       <c r="N11">
@@ -8376,7 +8343,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>38135</v>
       </c>
       <c r="N12">
@@ -8420,10 +8387,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>38135</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8464,7 +8431,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>38135</v>
       </c>
       <c r="N14">
@@ -8508,10 +8475,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>38142</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8552,10 +8519,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>38135</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8596,10 +8563,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>38142</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -8640,7 +8607,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>38142</v>
       </c>
       <c r="N18" s="1">
@@ -8694,7 +8661,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>38135</v>
       </c>
@@ -8739,7 +8706,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -8793,7 +8760,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>38142</v>
       </c>
@@ -8921,10 +8888,10 @@
         <v>38393</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8964,7 +8931,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>38506</v>
       </c>
       <c r="N2">
@@ -9008,10 +8975,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>38506</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -9052,7 +9019,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>38506</v>
       </c>
       <c r="N4">
@@ -9096,7 +9063,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>38506</v>
       </c>
       <c r="N5">
@@ -9140,7 +9107,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>38506</v>
       </c>
       <c r="N6">
@@ -9184,10 +9151,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>38506</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -9228,7 +9195,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>38506</v>
       </c>
       <c r="N8">
@@ -9272,7 +9239,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>38506</v>
       </c>
       <c r="N9">
@@ -9316,7 +9283,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>38506</v>
       </c>
       <c r="N10">
@@ -9360,7 +9327,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>38506</v>
       </c>
       <c r="N11">
@@ -9404,7 +9371,7 @@
       <c r="L12" s="14">
         <v>0.25</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>38506</v>
       </c>
       <c r="N12">
@@ -9448,10 +9415,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>38506</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -9492,7 +9459,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>38506</v>
       </c>
       <c r="N14">
@@ -9536,10 +9503,10 @@
       <c r="L15" s="14">
         <v>1</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>38506</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -9580,10 +9547,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>38506</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -9624,10 +9591,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>38506</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -9668,7 +9635,7 @@
       <c r="L18" s="15">
         <v>0.25</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>38506</v>
       </c>
       <c r="N18" s="1">
@@ -9722,7 +9689,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>38506</v>
       </c>
@@ -9767,7 +9734,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -9821,7 +9788,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0.25</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>38506</v>
       </c>
@@ -9949,15 +9916,15 @@
         <v>38757</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
@@ -9992,7 +9959,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>38869</v>
       </c>
       <c r="N2">
@@ -10001,7 +9968,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -10036,7 +10003,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>38869</v>
       </c>
       <c r="N3">
@@ -10045,7 +10012,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -10080,7 +10047,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>38868</v>
       </c>
       <c r="N4">
@@ -10089,7 +10056,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -10124,7 +10091,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>38870</v>
       </c>
       <c r="N5">
@@ -10133,7 +10100,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -10168,7 +10135,7 @@
       <c r="L6" s="14">
         <v>0.25</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>38870</v>
       </c>
       <c r="N6">
@@ -10177,7 +10144,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -10212,16 +10179,16 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>38870</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -10256,7 +10223,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>38869</v>
       </c>
       <c r="N8">
@@ -10265,12 +10232,12 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="48">
         <v>6.7796610169491522</v>
       </c>
       <c r="D9" s="14">
@@ -10300,7 +10267,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>38877</v>
       </c>
       <c r="N9">
@@ -10309,7 +10276,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -10344,7 +10311,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>38870</v>
       </c>
       <c r="N10">
@@ -10353,7 +10320,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -10388,7 +10355,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>38870</v>
       </c>
       <c r="N11">
@@ -10397,7 +10364,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -10432,7 +10399,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>38870</v>
       </c>
       <c r="N12">
@@ -10441,7 +10408,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
@@ -10476,16 +10443,16 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>38870</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -10520,16 +10487,16 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>38877</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -10564,16 +10531,16 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>38877</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -10608,16 +10575,16 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>38870</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -10652,10 +10619,10 @@
       <c r="L17" s="14">
         <v>0.25</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>38877</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -10696,7 +10663,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>38870</v>
       </c>
       <c r="N18" s="1">
@@ -10750,7 +10717,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>38869.583333333336</v>
       </c>
@@ -10795,7 +10762,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -10849,7 +10816,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>38877</v>
       </c>
@@ -10977,10 +10944,10 @@
         <v>39121</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -11020,7 +10987,7 @@
       <c r="L2" s="14">
         <v>0.25</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>39233</v>
       </c>
       <c r="N2">
@@ -11064,7 +11031,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>39233</v>
       </c>
       <c r="N3">
@@ -11108,7 +11075,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>39233</v>
       </c>
       <c r="N4">
@@ -11152,7 +11119,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>39233</v>
       </c>
       <c r="N5">
@@ -11196,7 +11163,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>39233</v>
       </c>
       <c r="N6">
@@ -11240,7 +11207,7 @@
       <c r="L7" s="14">
         <v>8.25</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>39233</v>
       </c>
       <c r="N7">
@@ -11284,7 +11251,7 @@
       <c r="L8" s="14">
         <v>1</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>39233</v>
       </c>
       <c r="N8">
@@ -11328,7 +11295,7 @@
       <c r="L9" s="14">
         <v>0.25</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>39239</v>
       </c>
       <c r="N9">
@@ -11372,7 +11339,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>39233</v>
       </c>
       <c r="N10">
@@ -11416,7 +11383,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>39233</v>
       </c>
       <c r="N11">
@@ -11460,7 +11427,7 @@
       <c r="L12" s="14">
         <v>0.5</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>39233</v>
       </c>
       <c r="N12">
@@ -11504,10 +11471,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>39233</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -11548,7 +11515,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>39239</v>
       </c>
       <c r="N14">
@@ -11592,7 +11559,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>39240</v>
       </c>
       <c r="N15">
@@ -11636,10 +11603,10 @@
       <c r="L16" s="14">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="41">
         <v>39233</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -11680,10 +11647,10 @@
       <c r="L17" s="14">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="41">
         <v>39239</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -11724,7 +11691,7 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <v>39233</v>
       </c>
       <c r="N18" s="1">
@@ -11778,7 +11745,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="ターザン")+(B2:B18="ターボ")))</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18, (B2:B18="ターザン")+(B2:B18="ターボ")))</f>
         <v>39233</v>
       </c>
@@ -11823,7 +11790,7 @@
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -11877,7 +11844,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>39239.25</v>
       </c>
@@ -12005,10 +11972,10 @@
         <v>39485</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12048,7 +12015,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>39598</v>
       </c>
       <c r="N2">
@@ -12092,7 +12059,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>39598</v>
       </c>
       <c r="N3">
@@ -12136,7 +12103,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>39598</v>
       </c>
       <c r="N4">
@@ -12180,7 +12147,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>39605</v>
       </c>
       <c r="N5">
@@ -12224,7 +12191,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>39596</v>
       </c>
       <c r="N6">
@@ -12268,7 +12235,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>39605</v>
       </c>
       <c r="N7">
@@ -12312,7 +12279,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>39598</v>
       </c>
       <c r="N8">
@@ -12356,7 +12323,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>39598</v>
       </c>
       <c r="N9">
@@ -12400,7 +12367,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>39598</v>
       </c>
       <c r="N10">
@@ -12444,7 +12411,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>39598</v>
       </c>
       <c r="N11">
@@ -12488,7 +12455,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>39605</v>
       </c>
       <c r="N12">
@@ -12532,10 +12499,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>39605</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -12576,7 +12543,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>39595</v>
       </c>
       <c r="N14">
@@ -12620,7 +12587,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>39605</v>
       </c>
       <c r="N15">
@@ -12664,7 +12631,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>39605</v>
       </c>
       <c r="N16" s="1">
@@ -12718,7 +12685,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>39597.444444444445</v>
       </c>
@@ -12763,7 +12730,7 @@
       <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N18">
@@ -12817,7 +12784,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>39605</v>
       </c>
@@ -12944,10 +12911,10 @@
         <v>33283</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -12987,7 +12954,7 @@
       <c r="L2" s="26">
         <v>0.25</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -13031,10 +12998,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -13075,10 +13042,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
     </row>
@@ -13119,7 +13086,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -13163,10 +13130,10 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="53">
+      <c r="M6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="51">
         <v>0</v>
       </c>
     </row>
@@ -13207,10 +13174,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>0</v>
       </c>
     </row>
@@ -13251,10 +13218,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -13295,7 +13262,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -13339,10 +13306,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -13383,7 +13350,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -13427,7 +13394,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -13471,10 +13438,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>0</v>
       </c>
     </row>
@@ -13515,7 +13482,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -13559,10 +13526,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -13603,10 +13570,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>0</v>
       </c>
     </row>
@@ -13647,10 +13614,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -13691,7 +13658,7 @@
       <c r="L18" s="29">
         <v>0.25</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -13735,7 +13702,7 @@
       <c r="L19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N19">
@@ -13779,7 +13746,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -13823,7 +13790,7 @@
       <c r="L21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N21">
@@ -13950,10 +13917,10 @@
         <v>39849</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -13993,7 +13960,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>39962</v>
       </c>
       <c r="N2">
@@ -14037,7 +14004,7 @@
       <c r="L3" s="14">
         <v>1.25</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>39962</v>
       </c>
       <c r="N3">
@@ -14081,7 +14048,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>39962</v>
       </c>
       <c r="N4">
@@ -14125,7 +14092,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>39972</v>
       </c>
       <c r="N5">
@@ -14169,7 +14136,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>39962</v>
       </c>
       <c r="N6">
@@ -14213,7 +14180,7 @@
       <c r="L7" s="14">
         <v>0.75</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>39972</v>
       </c>
       <c r="N7">
@@ -14257,7 +14224,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>39962</v>
       </c>
       <c r="N8">
@@ -14301,7 +14268,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>39962</v>
       </c>
       <c r="N9">
@@ -14345,7 +14312,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>39962</v>
       </c>
       <c r="N10">
@@ -14389,7 +14356,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>39962</v>
       </c>
       <c r="N11">
@@ -14433,7 +14400,7 @@
       <c r="L12" s="14">
         <v>0.5</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>39972</v>
       </c>
       <c r="N12">
@@ -14477,10 +14444,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>39972</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -14521,7 +14488,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>39962</v>
       </c>
       <c r="N14">
@@ -14565,7 +14532,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>39972</v>
       </c>
       <c r="N15">
@@ -14609,7 +14576,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>39972</v>
       </c>
       <c r="N16" s="1">
@@ -14662,7 +14629,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0.1388888888888889</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>39962</v>
       </c>
@@ -14707,7 +14674,7 @@
       <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N18">
@@ -14760,7 +14727,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>39972</v>
       </c>
@@ -14887,10 +14854,10 @@
         <v>40213</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -14930,7 +14897,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>40333</v>
       </c>
       <c r="N2">
@@ -14974,7 +14941,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>40333</v>
       </c>
       <c r="N3">
@@ -15018,7 +14985,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>40329</v>
       </c>
       <c r="N4">
@@ -15062,7 +15029,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>40329</v>
       </c>
       <c r="N5">
@@ -15106,7 +15073,7 @@
       <c r="L6" s="14">
         <v>0.75</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>40329</v>
       </c>
       <c r="N6">
@@ -15150,7 +15117,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>40333</v>
       </c>
       <c r="N7">
@@ -15194,7 +15161,7 @@
       <c r="L8" s="14">
         <v>0.5</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>40340</v>
       </c>
       <c r="N8">
@@ -15238,7 +15205,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>40333</v>
       </c>
       <c r="N9">
@@ -15282,7 +15249,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>40337</v>
       </c>
       <c r="N10">
@@ -15326,7 +15293,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>40329</v>
       </c>
       <c r="N11">
@@ -15370,7 +15337,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>40338</v>
       </c>
       <c r="N12">
@@ -15414,10 +15381,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>40337</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -15458,7 +15425,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>40338</v>
       </c>
       <c r="N14">
@@ -15502,7 +15469,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>40337</v>
       </c>
       <c r="N15">
@@ -15546,7 +15513,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>40340</v>
       </c>
       <c r="N16" s="1">
@@ -15599,7 +15566,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>9.375E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>40331</v>
       </c>
@@ -15644,7 +15611,7 @@
       <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N18">
@@ -15697,7 +15664,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0.125</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>40338.75</v>
       </c>
@@ -15824,10 +15791,10 @@
         <v>40577</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -15867,7 +15834,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>40696</v>
       </c>
       <c r="N2">
@@ -15911,7 +15878,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>40700</v>
       </c>
       <c r="N3">
@@ -15955,7 +15922,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>40700</v>
       </c>
       <c r="N4">
@@ -15999,7 +15966,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>40696</v>
       </c>
       <c r="N5">
@@ -16043,7 +16010,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>40700</v>
       </c>
       <c r="N6">
@@ -16087,7 +16054,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>40697</v>
       </c>
       <c r="N7">
@@ -16131,7 +16098,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>40704</v>
       </c>
       <c r="N8">
@@ -16175,7 +16142,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>40700</v>
       </c>
       <c r="N9">
@@ -16219,7 +16186,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>40700</v>
       </c>
       <c r="N10">
@@ -16263,7 +16230,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>40694</v>
       </c>
       <c r="N11">
@@ -16307,7 +16274,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>40704</v>
       </c>
       <c r="N12">
@@ -16351,10 +16318,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>40703</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -16395,7 +16362,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>40703</v>
       </c>
       <c r="N14">
@@ -16439,7 +16406,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>40703</v>
       </c>
       <c r="N15">
@@ -16483,7 +16450,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>40703</v>
       </c>
       <c r="N16" s="1">
@@ -16536,7 +16503,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>40698</v>
       </c>
@@ -16590,7 +16557,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")+(B2:B16="D-84")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>40700.75</v>
       </c>
@@ -16644,7 +16611,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>40703.5</v>
       </c>
@@ -16772,10 +16739,10 @@
         <v>40948</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -16815,7 +16782,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>41064</v>
       </c>
       <c r="N2">
@@ -16859,7 +16826,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>41061</v>
       </c>
       <c r="N3">
@@ -16903,7 +16870,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>41061</v>
       </c>
       <c r="N4">
@@ -16947,7 +16914,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>41064</v>
       </c>
       <c r="N5">
@@ -16991,7 +16958,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>41061</v>
       </c>
       <c r="N6">
@@ -17035,7 +17002,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>41068</v>
       </c>
       <c r="N7">
@@ -17079,7 +17046,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>41068</v>
       </c>
       <c r="N8">
@@ -17123,7 +17090,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>41061</v>
       </c>
       <c r="N9">
@@ -17167,7 +17134,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>41068</v>
       </c>
       <c r="N10">
@@ -17211,7 +17178,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>41061</v>
       </c>
       <c r="N11">
@@ -17255,7 +17222,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>41067</v>
       </c>
       <c r="N12">
@@ -17299,10 +17266,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>41068</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -17343,7 +17310,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>41067</v>
       </c>
       <c r="N14">
@@ -17387,7 +17354,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>41067</v>
       </c>
       <c r="N15">
@@ -17431,7 +17398,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>41068</v>
       </c>
       <c r="N16" s="1">
@@ -17484,7 +17451,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>41061.857142857145</v>
       </c>
@@ -17538,7 +17505,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>41067.5</v>
       </c>
@@ -17592,7 +17559,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>41067.75</v>
       </c>
@@ -17719,10 +17686,10 @@
         <v>41312</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -17762,7 +17729,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>41425</v>
       </c>
       <c r="N2">
@@ -17806,7 +17773,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>41428</v>
       </c>
       <c r="N3">
@@ -17850,7 +17817,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>41425</v>
       </c>
       <c r="N4">
@@ -17894,7 +17861,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>41425</v>
       </c>
       <c r="N5">
@@ -17938,7 +17905,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>41428</v>
       </c>
       <c r="N6">
@@ -17982,7 +17949,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>41428</v>
       </c>
       <c r="N7">
@@ -18026,7 +17993,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>41435</v>
       </c>
       <c r="N8">
@@ -18070,7 +18037,7 @@
       <c r="L9" s="14">
         <v>0.25</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>41425</v>
       </c>
       <c r="N9">
@@ -18114,7 +18081,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>41428</v>
       </c>
       <c r="N10">
@@ -18158,7 +18125,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>41425</v>
       </c>
       <c r="N11">
@@ -18202,7 +18169,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>41435</v>
       </c>
       <c r="N12">
@@ -18246,10 +18213,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>41431</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -18290,7 +18257,7 @@
       <c r="L14" s="14">
         <v>0.25</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>41431</v>
       </c>
       <c r="N14">
@@ -18334,7 +18301,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>41435</v>
       </c>
       <c r="N15">
@@ -18378,7 +18345,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>41431</v>
       </c>
       <c r="N16" s="1">
@@ -18431,7 +18398,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>41425.857142857145</v>
       </c>
@@ -18485,7 +18452,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>41429.5</v>
       </c>
@@ -18539,7 +18506,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>41434</v>
       </c>
@@ -18619,7 +18586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7037B7-D094-1C41-B272-E72416F5EAE7}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -18666,10 +18633,10 @@
         <v>41676</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18709,7 +18676,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>41789</v>
       </c>
       <c r="N2">
@@ -18753,7 +18720,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>41789</v>
       </c>
       <c r="N3">
@@ -18797,7 +18764,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>41789</v>
       </c>
       <c r="N4">
@@ -18841,7 +18808,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>41789</v>
       </c>
       <c r="N5">
@@ -18885,7 +18852,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>41789</v>
       </c>
       <c r="N6">
@@ -18929,7 +18896,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>41793</v>
       </c>
       <c r="N7">
@@ -18973,7 +18940,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>41793</v>
       </c>
       <c r="N8">
@@ -19017,7 +18984,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>41789</v>
       </c>
       <c r="N9">
@@ -19061,7 +19028,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>41793</v>
       </c>
       <c r="N10">
@@ -19105,7 +19072,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>41789</v>
       </c>
       <c r="N11">
@@ -19149,7 +19116,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>41793</v>
       </c>
       <c r="N12">
@@ -19193,10 +19160,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>41799</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -19237,7 +19204,7 @@
       <c r="L14" s="14">
         <v>0.25</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>41793</v>
       </c>
       <c r="N14">
@@ -19281,7 +19248,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>41799</v>
       </c>
       <c r="N15">
@@ -19325,7 +19292,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>41793</v>
       </c>
       <c r="N16" s="1">
@@ -19378,7 +19345,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>41789</v>
       </c>
@@ -19432,7 +19399,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>41793</v>
       </c>
@@ -19486,7 +19453,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>41796</v>
       </c>
@@ -19624,10 +19591,10 @@
         <v>42040</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -19667,7 +19634,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>42156</v>
       </c>
       <c r="N2">
@@ -19711,7 +19678,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>42156</v>
       </c>
       <c r="N3">
@@ -19755,7 +19722,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>42156</v>
       </c>
       <c r="N4">
@@ -19799,7 +19766,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>42156</v>
       </c>
       <c r="N5">
@@ -19843,7 +19810,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>42156</v>
       </c>
       <c r="N6">
@@ -19887,7 +19854,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>42160</v>
       </c>
       <c r="N7">
@@ -19931,7 +19898,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>42160</v>
       </c>
       <c r="N8">
@@ -19975,7 +19942,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>42156</v>
       </c>
       <c r="N9">
@@ -20019,7 +19986,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>42156</v>
       </c>
       <c r="N10">
@@ -20063,7 +20030,7 @@
       <c r="L11" s="14">
         <v>0.25</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>42153</v>
       </c>
       <c r="N11">
@@ -20107,7 +20074,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>42160</v>
       </c>
       <c r="N12">
@@ -20151,10 +20118,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>42163</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -20195,7 +20162,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>42160</v>
       </c>
       <c r="N14">
@@ -20239,7 +20206,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>42163</v>
       </c>
       <c r="N15">
@@ -20283,7 +20250,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>42160</v>
       </c>
       <c r="N16" s="1">
@@ -20336,7 +20303,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>3.125E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>42155.625</v>
       </c>
@@ -20390,7 +20357,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>42160</v>
       </c>
@@ -20444,7 +20411,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>42163</v>
       </c>
@@ -20571,10 +20538,10 @@
         <v>42410</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -20614,7 +20581,7 @@
       <c r="L2" s="14">
         <v>0.5</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>42520</v>
       </c>
       <c r="N2">
@@ -20658,7 +20625,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>42520</v>
       </c>
       <c r="N3">
@@ -20702,7 +20669,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>42520</v>
       </c>
       <c r="N4">
@@ -20746,7 +20713,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>42520</v>
       </c>
       <c r="N5">
@@ -20790,7 +20757,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>42524</v>
       </c>
       <c r="N6">
@@ -20834,7 +20801,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>42524</v>
       </c>
       <c r="N7">
@@ -20878,7 +20845,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>42529</v>
       </c>
       <c r="N8">
@@ -20922,7 +20889,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>42517</v>
       </c>
       <c r="N9">
@@ -20966,7 +20933,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>42520</v>
       </c>
       <c r="N10">
@@ -21010,7 +20977,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>42529</v>
       </c>
       <c r="N11">
@@ -21054,7 +21021,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>42524</v>
       </c>
       <c r="N12">
@@ -21098,10 +21065,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>42529</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -21142,7 +21109,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>42524</v>
       </c>
       <c r="N14">
@@ -21186,7 +21153,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>42529</v>
       </c>
       <c r="N15">
@@ -21230,7 +21197,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>42520</v>
       </c>
       <c r="N16" s="1">
@@ -21283,7 +21250,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>42519.571428571428</v>
       </c>
@@ -21337,7 +21304,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>42524</v>
       </c>
@@ -21391,7 +21358,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>42529</v>
       </c>
@@ -21518,10 +21485,10 @@
         <v>42775</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -21561,7 +21528,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>42891</v>
       </c>
       <c r="N2">
@@ -21605,7 +21572,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>42885</v>
       </c>
       <c r="N3">
@@ -21649,7 +21616,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>42891</v>
       </c>
       <c r="N4">
@@ -21693,7 +21660,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>42886</v>
       </c>
       <c r="N5">
@@ -21737,7 +21704,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>42888</v>
       </c>
       <c r="N6">
@@ -21781,7 +21748,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>42886</v>
       </c>
       <c r="N7">
@@ -21825,7 +21792,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>42894</v>
       </c>
       <c r="N8">
@@ -21869,7 +21836,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>42886</v>
       </c>
       <c r="N9">
@@ -21913,7 +21880,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>42894</v>
       </c>
       <c r="N10">
@@ -21957,7 +21924,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>42888</v>
       </c>
       <c r="N11">
@@ -22001,7 +21968,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>42891</v>
       </c>
       <c r="N12">
@@ -22045,10 +22012,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>42894</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -22089,7 +22056,7 @@
       <c r="L14" s="14">
         <v>1.75</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>42885</v>
       </c>
       <c r="N14">
@@ -22133,7 +22100,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>42894</v>
       </c>
       <c r="N15">
@@ -22177,7 +22144,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>42886</v>
       </c>
       <c r="N16" s="1">
@@ -22230,7 +22197,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0.21875</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>42887.25</v>
       </c>
@@ -22284,7 +22251,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>42888.333333333336</v>
       </c>
@@ -22338,7 +22305,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>42894</v>
       </c>
@@ -22465,10 +22432,10 @@
         <v>43139</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -22508,7 +22475,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>43249</v>
       </c>
       <c r="N2">
@@ -22552,7 +22519,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>43249</v>
       </c>
       <c r="N3">
@@ -22596,7 +22563,7 @@
       <c r="L4" s="14">
         <v>0.25</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>43249</v>
       </c>
       <c r="N4">
@@ -22640,7 +22607,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>43249</v>
       </c>
       <c r="N5">
@@ -22684,7 +22651,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>43251</v>
       </c>
       <c r="N6">
@@ -22728,7 +22695,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>43255</v>
       </c>
       <c r="N7">
@@ -22772,7 +22739,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>43258</v>
       </c>
       <c r="N8">
@@ -22816,7 +22783,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>43251</v>
       </c>
       <c r="N9">
@@ -22860,7 +22827,7 @@
       <c r="L10" s="14">
         <v>0.25</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>43258</v>
       </c>
       <c r="N10">
@@ -22904,7 +22871,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>43255</v>
       </c>
       <c r="N11">
@@ -22948,7 +22915,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>43255</v>
       </c>
       <c r="N12">
@@ -22992,10 +22959,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>43258</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -23036,7 +23003,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>43251</v>
       </c>
       <c r="N14">
@@ -23080,7 +23047,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>43258</v>
       </c>
       <c r="N15">
@@ -23124,7 +23091,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>43249</v>
       </c>
       <c r="N16" s="1">
@@ -23177,7 +23144,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>3.125E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>43249.75</v>
       </c>
@@ -23231,7 +23198,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>43255</v>
       </c>
@@ -23285,7 +23252,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>43258</v>
       </c>
@@ -23412,10 +23379,10 @@
         <v>33647</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -23455,7 +23422,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -23499,10 +23466,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -23543,10 +23510,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
     </row>
@@ -23587,7 +23554,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -23631,10 +23598,10 @@
       <c r="L6" s="26">
         <v>1.75</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="53">
+      <c r="M6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="51">
         <v>0</v>
       </c>
     </row>
@@ -23675,10 +23642,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>0</v>
       </c>
     </row>
@@ -23719,10 +23686,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -23763,7 +23730,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -23772,7 +23739,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
@@ -23807,10 +23774,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -23851,7 +23818,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -23895,7 +23862,7 @@
       <c r="L12" s="26">
         <v>0.25</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -23939,10 +23906,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>0</v>
       </c>
     </row>
@@ -23983,7 +23950,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -24027,10 +23994,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -24071,10 +24038,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>0</v>
       </c>
     </row>
@@ -24115,10 +24082,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -24159,7 +24126,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -24212,7 +24179,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N19">
@@ -24256,7 +24223,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -24309,7 +24276,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N21">
@@ -24435,10 +24402,10 @@
         <v>43503</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -24478,7 +24445,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>43614</v>
       </c>
       <c r="N2">
@@ -24522,7 +24489,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>43614</v>
       </c>
       <c r="N3">
@@ -24566,7 +24533,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>43614</v>
       </c>
       <c r="N4">
@@ -24610,7 +24577,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>43614</v>
       </c>
       <c r="N5">
@@ -24654,7 +24621,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>43614</v>
       </c>
       <c r="N6">
@@ -24698,7 +24665,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>43619</v>
       </c>
       <c r="N7">
@@ -24742,7 +24709,7 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>43622</v>
       </c>
       <c r="N8">
@@ -24786,7 +24753,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>43614</v>
       </c>
       <c r="N9">
@@ -24830,7 +24797,7 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>43622</v>
       </c>
       <c r="N10">
@@ -24874,7 +24841,7 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>43619</v>
       </c>
       <c r="N11">
@@ -24918,7 +24885,7 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>43619</v>
       </c>
       <c r="N12">
@@ -24962,10 +24929,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>43622</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -25006,7 +24973,7 @@
       <c r="L14" s="14">
         <v>0.75</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>43614</v>
       </c>
       <c r="N14">
@@ -25050,7 +25017,7 @@
       <c r="L15" s="14">
         <v>0.5</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>43622</v>
       </c>
       <c r="N15">
@@ -25094,7 +25061,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>43614</v>
       </c>
       <c r="N16" s="1">
@@ -25147,7 +25114,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>9.375E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>43614</v>
       </c>
@@ -25201,7 +25168,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>43619</v>
       </c>
@@ -25255,7 +25222,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0.125</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>43622</v>
       </c>
@@ -25382,10 +25349,10 @@
         <v>43863</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -25425,7 +25392,7 @@
       <c r="L2" s="14">
         <v>0.25</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>43979</v>
       </c>
       <c r="N2">
@@ -25469,7 +25436,7 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>43979</v>
       </c>
       <c r="N3">
@@ -25513,7 +25480,7 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>43979</v>
       </c>
       <c r="N4">
@@ -25557,7 +25524,7 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>43979</v>
       </c>
       <c r="N5">
@@ -25601,7 +25568,7 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>43979</v>
       </c>
       <c r="N6">
@@ -25645,7 +25612,7 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>43985</v>
       </c>
       <c r="N7">
@@ -25689,7 +25656,7 @@
       <c r="L8" s="14">
         <v>0.5</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>43990</v>
       </c>
       <c r="N8">
@@ -25733,7 +25700,7 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>43979</v>
       </c>
       <c r="N9">
@@ -25777,7 +25744,7 @@
       <c r="L10" s="14">
         <v>0.25</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>43979</v>
       </c>
       <c r="N10">
@@ -25821,7 +25788,7 @@
       <c r="L11" s="14">
         <v>0.25</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>43990</v>
       </c>
       <c r="N11">
@@ -25865,7 +25832,7 @@
       <c r="L12" s="14">
         <v>0.25</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>43985</v>
       </c>
       <c r="N12">
@@ -25909,10 +25876,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>43979</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>0</v>
       </c>
     </row>
@@ -25953,7 +25920,7 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>43979</v>
       </c>
       <c r="N14">
@@ -25997,7 +25964,7 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>43990</v>
       </c>
       <c r="N15">
@@ -26041,7 +26008,7 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>43979</v>
       </c>
       <c r="N16" s="1">
@@ -26094,7 +26061,7 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>43979</v>
       </c>
@@ -26148,7 +26115,7 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0.125</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>43985</v>
       </c>
@@ -26202,7 +26169,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0.1875</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>43987.25</v>
       </c>
@@ -26329,10 +26296,10 @@
         <v>44237</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -26372,10 +26339,10 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>44348</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26416,10 +26383,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>44354</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26460,10 +26427,10 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>44348</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26504,10 +26471,10 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>44344</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26548,10 +26515,10 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>44348</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26592,10 +26559,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>44348</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26636,10 +26603,10 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>44355</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26680,10 +26647,10 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>44348</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26724,10 +26691,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>44348</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26768,10 +26735,10 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>44354</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26812,10 +26779,10 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>44348</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26856,10 +26823,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>44354</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -26900,10 +26867,10 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>44347</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26944,10 +26911,10 @@
       <c r="L15" s="14">
         <v>0.25</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>44355</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <v>1</v>
       </c>
     </row>
@@ -26988,10 +26955,10 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>44348</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="44">
         <v>1</v>
       </c>
     </row>
@@ -27041,11 +27008,11 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>44347.375</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="45">
         <v>1</v>
       </c>
     </row>
@@ -27095,11 +27062,11 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>44350</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27149,11 +27116,11 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>44354.5</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="45">
         <v>1</v>
       </c>
     </row>
@@ -27276,10 +27243,10 @@
         <v>44600</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -27319,10 +27286,10 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>44711</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27363,10 +27330,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>44715</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27407,10 +27374,10 @@
       <c r="L4" s="14">
         <v>0</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>44711</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27451,10 +27418,10 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>44711</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27495,10 +27462,10 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>44711</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27539,10 +27506,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>44711</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27583,10 +27550,10 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>43990</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27627,10 +27594,10 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>44711</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27671,10 +27638,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>44711</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27715,10 +27682,10 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>44720</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27759,10 +27726,10 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>44715</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27803,10 +27770,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>44720</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="43">
         <v>0</v>
       </c>
     </row>
@@ -27847,10 +27814,10 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>44705</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27891,10 +27858,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>43990</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <v>1</v>
       </c>
     </row>
@@ -27935,10 +27902,10 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>44715</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="44">
         <v>1</v>
       </c>
     </row>
@@ -27988,11 +27955,11 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>44710.25</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="45">
         <v>1</v>
       </c>
     </row>
@@ -28042,11 +28009,11 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>44715</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28096,11 +28063,11 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>44355</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="45">
         <v>1</v>
       </c>
     </row>
@@ -28177,7 +28144,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+      <selection activeCell="N21" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -28223,10 +28190,10 @@
         <v>44966</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -28266,10 +28233,10 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="41">
         <v>45075</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28310,10 +28277,10 @@
       <c r="L3" s="14">
         <v>0</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="41">
         <v>45078</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28354,10 +28321,10 @@
       <c r="L4" s="14">
         <v>0.5</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="41">
         <v>45075</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28398,10 +28365,10 @@
       <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="41">
         <v>45075</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28442,10 +28409,10 @@
       <c r="L6" s="14">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>45075</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28486,10 +28453,10 @@
       <c r="L7" s="14">
         <v>0</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="41">
         <v>45071</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28530,10 +28497,10 @@
       <c r="L8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="41">
         <v>45085</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28574,10 +28541,10 @@
       <c r="L9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="41">
         <v>45075</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28618,10 +28585,10 @@
       <c r="L10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="41">
         <v>45075</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28662,10 +28629,10 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <v>45085</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28706,10 +28673,10 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>45078</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28750,10 +28717,10 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="41">
         <v>45085</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28794,10 +28761,10 @@
       <c r="L14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="41">
         <v>45071</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28838,10 +28805,10 @@
       <c r="L15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="41">
         <v>45085</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="43">
         <v>1</v>
       </c>
     </row>
@@ -28882,10 +28849,10 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <v>45078</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="44">
         <v>1</v>
       </c>
     </row>
@@ -28935,11 +28902,11 @@
         <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M17" s="42" cm="1">
+      <c r="M17" s="40" cm="1">
         <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
         <v>45074</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="45">
         <v>1</v>
       </c>
     </row>
@@ -28989,11 +28956,11 @@
         <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" cm="1">
+      <c r="M18" s="40" cm="1">
         <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
         <v>45078</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="43">
         <v>1</v>
       </c>
     </row>
@@ -29043,11 +29010,11 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
         <v>45085</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="45">
         <v>1</v>
       </c>
     </row>
@@ -29122,99 +29089,949 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA5FC7-C482-A840-8387-4A1AD840857A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>45492</v>
+      </c>
+      <c r="D1" s="11">
+        <v>45444</v>
+      </c>
+      <c r="E1" s="11">
+        <v>45434</v>
+      </c>
+      <c r="F1" s="11">
+        <v>45419</v>
+      </c>
+      <c r="G1" s="11">
+        <v>45397</v>
+      </c>
+      <c r="H1" s="11">
+        <v>45386</v>
+      </c>
+      <c r="I1" s="11">
+        <v>45372</v>
+      </c>
+      <c r="J1" s="11">
+        <v>45355</v>
+      </c>
+      <c r="K1" s="11">
+        <v>45342</v>
+      </c>
+      <c r="L1" s="11">
+        <v>45328</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N2" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3.25</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
+        <v>45447</v>
+      </c>
+      <c r="N3" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N4" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N5" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N6" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N7" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="41">
+        <v>45450</v>
+      </c>
+      <c r="N8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N9" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2.25</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N10" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14">
+        <v>11.7</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="41">
+        <v>45450</v>
+      </c>
+      <c r="N11" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="41">
+        <v>45447</v>
+      </c>
+      <c r="N12" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="41">
+        <v>45450</v>
+      </c>
+      <c r="N13" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="41">
+        <v>45442</v>
+      </c>
+      <c r="N14" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="41">
+        <v>45450</v>
+      </c>
+      <c r="N15" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="42">
+        <v>45447</v>
+      </c>
+      <c r="N16" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" cm="1">
+        <f t="array" ref="C17">AVERAGE(_xlfn._xlws.FILTER(C2:C16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="D17" s="12" cm="1">
+        <f t="array" ref="D17">AVERAGE(_xlfn._xlws.FILTER(D2:D16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>1.125</v>
+      </c>
+      <c r="E17" s="12" cm="1">
+        <f t="array" ref="E17">AVERAGE(_xlfn._xlws.FILTER(E2:E16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>1.34375</v>
+      </c>
+      <c r="F17" s="12" cm="1">
+        <f t="array" ref="F17">AVERAGE(_xlfn._xlws.FILTER(F2:F16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.90625</v>
+      </c>
+      <c r="G17" s="12" cm="1">
+        <f t="array" ref="G17">AVERAGE(_xlfn._xlws.FILTER(G2:G16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.53125</v>
+      </c>
+      <c r="H17" s="12" cm="1">
+        <f t="array" ref="H17">AVERAGE(_xlfn._xlws.FILTER(H2:H16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.3125</v>
+      </c>
+      <c r="I17" s="12" cm="1">
+        <f t="array" ref="I17">AVERAGE(_xlfn._xlws.FILTER(I2:I16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J17" s="12" cm="1">
+        <f t="array" ref="J17">AVERAGE(_xlfn._xlws.FILTER(J2:J16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K17" s="12" cm="1">
+        <f t="array" ref="K17">AVERAGE(_xlfn._xlws.FILTER(K2:K16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="L17" s="12" cm="1">
+        <f t="array" ref="L17">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M17" s="40" cm="1">
+        <f t="array" ref="M17">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="ターザン")+(B2:B16="ターボ")))</f>
+        <v>45442</v>
+      </c>
+      <c r="N17" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" cm="1">
+        <f t="array" ref="C18">AVERAGE(_xlfn._xlws.FILTER(C2:C16, (B2:B16="もみじの輝")))</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="D18" s="12" cm="1">
+        <f t="array" ref="D18">AVERAGE(_xlfn._xlws.FILTER(D2:D16, (B2:B16="もみじの輝")))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E18" s="12" cm="1">
+        <f t="array" ref="E18">AVERAGE(_xlfn._xlws.FILTER(E2:E16, (B2:B16="もみじの輝")))</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="F18" s="12" cm="1">
+        <f t="array" ref="F18">AVERAGE(_xlfn._xlws.FILTER(F2:F16, (B2:B16="もみじの輝")))</f>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="12" cm="1">
+        <f t="array" ref="G18">AVERAGE(_xlfn._xlws.FILTER(G2:G16, (B2:B16="もみじの輝")))</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H18" s="12" cm="1">
+        <f t="array" ref="H18">AVERAGE(_xlfn._xlws.FILTER(H2:H16, (B2:B16="もみじの輝")))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I18" s="12" cm="1">
+        <f t="array" ref="I18">AVERAGE(_xlfn._xlws.FILTER(I2:I16, (B2:B16="もみじの輝")))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J18" s="12" cm="1">
+        <f t="array" ref="J18">AVERAGE(_xlfn._xlws.FILTER(J2:J16, (B2:B16="もみじの輝")))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" cm="1">
+        <f t="array" ref="K18">AVERAGE(_xlfn._xlws.FILTER(K2:K16, (B2:B16="もみじの輝")))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" cm="1">
+        <f t="array" ref="L18">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじの輝")))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="40" cm="1">
+        <f t="array" ref="M18">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじの輝")))</f>
+        <v>45447</v>
+      </c>
+      <c r="N18" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" cm="1">
+        <f t="array" ref="C19">AVERAGE(_xlfn._xlws.FILTER(C2:C16, (B2:B16="もみじ３号")))</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="12" cm="1">
+        <f t="array" ref="D19">AVERAGE(_xlfn._xlws.FILTER(D2:D16, (B2:B16="もみじ３号")))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" cm="1">
+        <f t="array" ref="E19">AVERAGE(_xlfn._xlws.FILTER(E2:E16, (B2:B16="もみじ３号")))</f>
+        <v>0.6875</v>
+      </c>
+      <c r="F19" s="12" cm="1">
+        <f t="array" ref="F19">AVERAGE(_xlfn._xlws.FILTER(F2:F16, (B2:B16="もみじ３号")))</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G19" s="12" cm="1">
+        <f t="array" ref="G19">AVERAGE(_xlfn._xlws.FILTER(G2:G16, (B2:B16="もみじ３号")))</f>
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="12" cm="1">
+        <f t="array" ref="H19">AVERAGE(_xlfn._xlws.FILTER(H2:H16, (B2:B16="もみじ３号")))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12" cm="1">
+        <f t="array" ref="I19">AVERAGE(_xlfn._xlws.FILTER(I2:I16, (B2:B16="もみじ３号")))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" cm="1">
+        <f t="array" ref="J19">AVERAGE(_xlfn._xlws.FILTER(J2:J16, (B2:B16="もみじ３号")))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12" cm="1">
+        <f t="array" ref="K19">AVERAGE(_xlfn._xlws.FILTER(K2:K16, (B2:B16="もみじ３号")))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" cm="1">
+        <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L16, (B2:B16="もみじ３号")))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="40" cm="1">
+        <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M16, (B2:B16="もみじ３号")))</f>
+        <v>45450</v>
+      </c>
+      <c r="N19" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13">
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="D20" s="13">
+        <f>AVERAGE(D2:D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <f>AVERAGE(E2:E16)</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20:L20" si="0">AVERAGE(F2:F16)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="41">
-        <v>1.111</v>
-      </c>
-      <c r="C2" s="41">
-        <v>1</v>
-      </c>
-      <c r="D2" s="41">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="J2" s="41">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="K2" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="40">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="41">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="41">
-        <v>0.313</v>
-      </c>
-      <c r="E3" s="41">
-        <v>0.188</v>
-      </c>
-      <c r="F3" s="41">
-        <v>0.188</v>
-      </c>
-      <c r="G3" s="41">
-        <v>0.125</v>
-      </c>
-      <c r="H3" s="41">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I3" s="41">
-        <v>0</v>
-      </c>
-      <c r="J3" s="41">
-        <v>0</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0</v>
-      </c>
-      <c r="L3" s="41"/>
+      <c r="E21">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C17:L20" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -29269,10 +30086,10 @@
         <v>34013</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -29312,7 +30129,7 @@
       <c r="L2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -29356,10 +30173,10 @@
       <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29400,10 +30217,10 @@
       <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>0</v>
       </c>
     </row>
@@ -29444,7 +30261,7 @@
       <c r="L5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -29488,10 +30305,10 @@
       <c r="L6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="53">
+      <c r="M6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="51">
         <v>0</v>
       </c>
     </row>
@@ -29532,10 +30349,10 @@
       <c r="L7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29576,10 +30393,10 @@
       <c r="L8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>0</v>
       </c>
     </row>
@@ -29620,7 +30437,7 @@
       <c r="L9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -29664,10 +30481,10 @@
       <c r="L10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29708,7 +30525,7 @@
       <c r="L11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -29752,7 +30569,7 @@
       <c r="L12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -29796,10 +30613,10 @@
       <c r="L13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29840,7 +30657,7 @@
       <c r="L14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -29884,10 +30701,10 @@
       <c r="L15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29928,10 +30745,10 @@
       <c r="L16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>0</v>
       </c>
     </row>
@@ -29972,10 +30789,10 @@
       <c r="L17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>0</v>
       </c>
     </row>
@@ -30016,7 +30833,7 @@
       <c r="L18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -30061,7 +30878,7 @@
       <c r="L19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N19">
@@ -30105,7 +30922,7 @@
       <c r="L20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -30150,7 +30967,7 @@
       <c r="L21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N21">
@@ -30265,10 +31082,10 @@
         <v>34381</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -30308,7 +31125,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -30352,16 +31169,16 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -30396,10 +31213,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>0</v>
       </c>
     </row>
@@ -30440,7 +31257,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>34492</v>
       </c>
       <c r="N5">
@@ -30484,10 +31301,10 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>34492</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="51">
         <v>1</v>
       </c>
     </row>
@@ -30528,10 +31345,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>34487</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -30572,10 +31389,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>34485</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -30616,7 +31433,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>34492</v>
       </c>
       <c r="N9">
@@ -30625,7 +31442,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
@@ -30660,10 +31477,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="49">
         <v>34485</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -30704,7 +31521,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>34492</v>
       </c>
       <c r="N11">
@@ -30748,7 +31565,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>34485</v>
       </c>
       <c r="N12">
@@ -30792,16 +31609,16 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>34492</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -30836,7 +31653,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>34492</v>
       </c>
       <c r="N14">
@@ -30845,7 +31662,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -30880,10 +31697,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="49">
         <v>34492</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -30924,10 +31741,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="49">
         <v>34492</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -30968,10 +31785,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="49">
         <v>34485</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -31012,7 +31829,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="50">
         <v>34492</v>
       </c>
       <c r="N18" s="1">
@@ -31065,7 +31882,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>34485</v>
       </c>
@@ -31110,7 +31927,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -31163,7 +31980,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>34491.5</v>
       </c>
@@ -31292,10 +32109,10 @@
         <v>34746</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -31335,7 +32152,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -31379,10 +32196,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -31423,10 +32240,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>0</v>
       </c>
     </row>
@@ -31467,7 +32284,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -31511,10 +32328,10 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="53">
+      <c r="M6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31555,10 +32372,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -31599,10 +32416,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31643,7 +32460,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -31652,7 +32469,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -31687,10 +32504,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>0</v>
       </c>
     </row>
@@ -31731,7 +32548,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -31775,7 +32592,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -31819,16 +32636,16 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -31863,7 +32680,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -31872,7 +32689,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -31907,10 +32724,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -31951,10 +32768,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -31995,10 +32812,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -32039,7 +32856,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -32091,7 +32908,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N19">
@@ -32135,7 +32952,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -32187,7 +33004,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N21">
@@ -32312,10 +33129,10 @@
         <v>35110</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -32355,7 +33172,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N2">
@@ -32364,7 +33181,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -32399,10 +33216,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="48">
+      <c r="M3" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="46">
         <v>0</v>
       </c>
     </row>
@@ -32443,10 +33260,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
     </row>
@@ -32487,7 +33304,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N5">
@@ -32531,7 +33348,7 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N6">
@@ -32575,10 +33392,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -32619,10 +33436,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="M8" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -32663,7 +33480,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N9">
@@ -32672,7 +33489,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -32707,10 +33524,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -32751,7 +33568,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N11">
@@ -32795,7 +33612,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -32839,16 +33656,16 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -32883,7 +33700,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N14">
@@ -32892,7 +33709,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -32927,10 +33744,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -32971,10 +33788,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -33015,10 +33832,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
@@ -33059,7 +33876,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -33111,7 +33928,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" t="e" cm="1">
+      <c r="M19" s="40" t="e" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>#DIV/0!</v>
       </c>
@@ -33156,7 +33973,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -33207,7 +34024,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" t="e" cm="1">
+      <c r="M21" s="40" t="e" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>#DIV/0!</v>
       </c>
@@ -33335,10 +34152,10 @@
         <v>35474</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -33378,7 +34195,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="49">
         <v>35580</v>
       </c>
       <c r="N2">
@@ -33423,10 +34240,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>35584</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -33467,10 +34284,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <v>35578</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="51">
         <v>1</v>
       </c>
     </row>
@@ -33511,7 +34328,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>35583</v>
       </c>
       <c r="N5">
@@ -33555,7 +34372,7 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N6">
@@ -33599,10 +34416,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>35590</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -33643,10 +34460,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>35590</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -33687,7 +34504,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>35583</v>
       </c>
       <c r="N9">
@@ -33696,7 +34513,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -33731,10 +34548,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="48">
+      <c r="M10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="46">
         <v>0</v>
       </c>
     </row>
@@ -33775,7 +34592,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>35578</v>
       </c>
       <c r="N11">
@@ -33819,7 +34636,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="N12">
@@ -33863,10 +34680,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="48">
+      <c r="M13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="46">
         <v>0</v>
       </c>
     </row>
@@ -33907,7 +34724,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>35590</v>
       </c>
       <c r="N14">
@@ -33951,10 +34768,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="48">
+      <c r="M15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="46">
         <v>0</v>
       </c>
     </row>
@@ -33995,10 +34812,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="46">
         <v>0</v>
       </c>
     </row>
@@ -34039,10 +34856,10 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
+      <c r="M17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="46">
         <v>0</v>
       </c>
     </row>
@@ -34083,7 +34900,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="1">
@@ -34136,7 +34953,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>35581</v>
       </c>
@@ -34181,7 +34998,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -34234,7 +35051,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>35590</v>
       </c>
@@ -34361,10 +35178,10 @@
         <v>35831</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -34404,7 +35221,7 @@
       <c r="L2" s="26">
         <v>0</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="49">
         <v>35947</v>
       </c>
       <c r="N2">
@@ -34448,10 +35265,10 @@
       <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>35947</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="46">
         <v>1</v>
       </c>
     </row>
@@ -34492,10 +35309,10 @@
       <c r="L4" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="53">
+      <c r="M4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="51">
         <v>0</v>
       </c>
     </row>
@@ -34536,7 +35353,7 @@
       <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>35947</v>
       </c>
       <c r="N5">
@@ -34580,7 +35397,7 @@
       <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>35950</v>
       </c>
       <c r="N6">
@@ -34624,10 +35441,10 @@
       <c r="L7" s="26">
         <v>0</v>
       </c>
-      <c r="M7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="46">
         <v>0</v>
       </c>
     </row>
@@ -34668,10 +35485,10 @@
       <c r="L8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>35943</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="51">
         <v>1</v>
       </c>
     </row>
@@ -34712,7 +35529,7 @@
       <c r="L9" s="26">
         <v>0</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>35950</v>
       </c>
       <c r="N9">
@@ -34721,7 +35538,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -34756,10 +35573,10 @@
       <c r="L10" s="26">
         <v>0</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="49">
         <v>35950</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -34800,7 +35617,7 @@
       <c r="L11" s="26">
         <v>0</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>35943</v>
       </c>
       <c r="N11">
@@ -34844,7 +35661,7 @@
       <c r="L12" s="26">
         <v>0</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>35947</v>
       </c>
       <c r="N12">
@@ -34888,10 +35705,10 @@
       <c r="L13" s="26">
         <v>0</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>35947</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="46">
         <v>1</v>
       </c>
     </row>
@@ -34932,7 +35749,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>35950</v>
       </c>
       <c r="N14">
@@ -34976,10 +35793,10 @@
       <c r="L15" s="26">
         <v>0</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="49">
         <v>35950</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="46">
         <v>1</v>
       </c>
     </row>
@@ -35020,10 +35837,10 @@
       <c r="L16" s="26">
         <v>0</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="49">
         <v>35950</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="46">
         <v>1</v>
       </c>
     </row>
@@ -35064,16 +35881,16 @@
       <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="49">
         <v>35947</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>95</v>
@@ -35108,7 +35925,7 @@
       <c r="L18" s="29">
         <v>0</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="50">
         <v>35950</v>
       </c>
       <c r="N18" s="1">
@@ -35161,7 +35978,7 @@
         <f t="array" ref="L19">AVERAGE(_xlfn._xlws.FILTER(L2:L18, ((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="42" cm="1">
+      <c r="M19" s="40" cm="1">
         <f t="array" ref="M19">AVERAGE(_xlfn._xlws.FILTER(M2:M18,((B2:B18="ターザン")+(B2:B18="ターボ"))*(N2:N18=1)))</f>
         <v>35946</v>
       </c>
@@ -35206,7 +36023,7 @@
       <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="52" t="s">
         <v>35</v>
       </c>
       <c r="N20">
@@ -35259,7 +36076,7 @@
         <f t="array" ref="L21">AVERAGE(_xlfn._xlws.FILTER(L2:L18, (B2:B18="もみじ３号")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="42" cm="1">
+      <c r="M21" s="40" cm="1">
         <f t="array" ref="M21">AVERAGE(_xlfn._xlws.FILTER(M4:M18, (B4:B18="もみじ３号")))</f>
         <v>35950</v>
       </c>
